--- a/天然气/eta/JKM_TTF_月度数据.xlsx
+++ b/天然气/eta/JKM_TTF_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.5825</v>
+        <v>0.6264</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1055</v>
+        <v>0.1465</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3589</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>0.2824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2632</v>
+        <v>0.2719</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>0.5218</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5254</v>
+        <v>0.5312</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>0.7222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7249</v>
+        <v>0.7237</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>0.7373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7426</v>
+        <v>0.7379</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>0.3681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3662</v>
+        <v>0.3672</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>0.1023</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1079</v>
+        <v>0.1072</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>-0.0019</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0072</v>
+        <v>-0.0074</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>-0.3174</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3147</v>
+        <v>-0.3166</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>-0.4164</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4181</v>
+        <v>-0.4143</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>0.4772</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4828</v>
+        <v>0.4814</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>0.3395</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3408</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>0.4864</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4835</v>
+        <v>0.4854</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +640,7 @@
         <v>1.465</v>
       </c>
       <c r="C16" t="n">
-        <v>1.4674</v>
+        <v>1.4614</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>1.3586</v>
       </c>
       <c r="C17" t="n">
-        <v>1.3555</v>
+        <v>1.3536</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>1.8405</v>
       </c>
       <c r="C18" t="n">
-        <v>1.8276</v>
+        <v>1.8308</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>1.7377</v>
       </c>
       <c r="C19" t="n">
-        <v>1.7461</v>
+        <v>1.7431</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>1.1329</v>
       </c>
       <c r="C20" t="n">
-        <v>1.1365</v>
+        <v>1.1392</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>1.0161</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0086</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>0.6121</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6173</v>
+        <v>0.6159</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +731,7 @@
         <v>0.6294</v>
       </c>
       <c r="C23" t="n">
-        <v>0.631</v>
+        <v>0.6297</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>0.4174</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4182</v>
+        <v>0.4218</v>
       </c>
     </row>
     <row r="25">
